--- a/data/trans_orig/Q20C_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q20C_R-Edad-trans_orig.xlsx
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3840</v>
+        <v>2914</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2467369705062685</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>1</v>
+        <v>0.7589711554978447</v>
       </c>
     </row>
     <row r="5">
@@ -935,7 +935,7 @@
         <v>2893</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0</v>
+        <v>926</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>3840</v>
@@ -944,7 +944,7 @@
         <v>0.7532630294937315</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0</v>
+        <v>0.2410288445021554</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4004</v>
+        <v>4059</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.166430189785018</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6821457039323121</v>
+        <v>0.6915387451594124</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5854</v>
+        <v>3991</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09012968047800909</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5400504782758578</v>
+        <v>0.3682048801532183</v>
       </c>
     </row>
     <row r="10">
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3993</v>
+        <v>4047</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2093843856346577</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8034605164491948</v>
+        <v>0.8142827323352416</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4264</v>
+        <v>4858</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09599301235849285</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.393379780281877</v>
+        <v>0.4481609461881736</v>
       </c>
     </row>
     <row r="11">
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4123</v>
+        <v>4129</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4291122052078342</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8295911657522018</v>
+        <v>0.8308380359881814</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3895</v>
+        <v>3936</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.160801198535841</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6635705947603781</v>
+        <v>0.6704796537238923</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -1207,19 +1207,19 @@
         <v>3076</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>952</v>
+        <v>969</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7013</v>
+        <v>6944</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2838093287806835</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08778497835525313</v>
+        <v>0.08938469686816049</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.646926368460171</v>
+        <v>0.6405631117735583</v>
       </c>
     </row>
     <row r="12">
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3873</v>
+        <v>3888</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.361503409157508</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7792011741283771</v>
+        <v>0.7822892213934767</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1257,7 +1257,7 @@
         <v>3949</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>999</v>
+        <v>1166</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>5870</v>
@@ -1266,7 +1266,7 @@
         <v>0.672768611679141</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1701685558042589</v>
+        <v>0.1985619530588201</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -1278,19 +1278,19 @@
         <v>5746</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1963</v>
+        <v>2615</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8771</v>
+        <v>8813</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5300679783828146</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1810714715355954</v>
+        <v>0.2412641192768361</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8091735148613108</v>
+        <v>0.8130329880246842</v>
       </c>
     </row>
     <row r="13">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3478</v>
+        <v>3442</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.128560884144015</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5565891154058272</v>
+        <v>0.5508340400717926</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4313</v>
+        <v>3461</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0665278887600637</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3571497517613535</v>
+        <v>0.2866271521061716</v>
       </c>
     </row>
     <row r="15">
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4802</v>
+        <v>4467</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3325835840043248</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8241873628400389</v>
+        <v>0.7666897848489885</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3861</v>
+        <v>3867</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1656529295493208</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.6179421159633265</v>
+        <v>0.618841453467602</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -1487,19 +1487,19 @@
         <v>2973</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>940</v>
+        <v>956</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6708</v>
+        <v>6954</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2462000460863169</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07785507131931924</v>
+        <v>0.07915188608571634</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.5555023926685767</v>
+        <v>0.5759325151196595</v>
       </c>
     </row>
     <row r="16">
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3921</v>
+        <v>3969</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1698035935693563</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6729920957531406</v>
+        <v>0.6812017362785301</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3460</v>
+        <v>3524</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.128560884144015</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5537488351135161</v>
+        <v>0.5640034792128313</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5477</v>
+        <v>5329</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1484612513547592</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4536139336238968</v>
+        <v>0.4413553032789848</v>
       </c>
     </row>
     <row r="17">
@@ -1587,19 +1587,19 @@
         <v>2899</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4885</v>
+        <v>4890</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4976128224263189</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.151684053294884</v>
+        <v>0.1522629199582146</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8384367346951689</v>
+        <v>0.839349592084176</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1608,19 +1608,19 @@
         <v>3607</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>917</v>
+        <v>992</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5471</v>
+        <v>5459</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5772253021626492</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.146804356451771</v>
+        <v>0.1587433521535861</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8755707940306858</v>
+        <v>0.8737555512309206</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -1629,19 +1629,19 @@
         <v>6506</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2818</v>
+        <v>3513</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9466</v>
+        <v>9436</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5388108137988602</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2333663392411794</v>
+        <v>0.2909094028675578</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7839140818393955</v>
+        <v>0.7814374097369946</v>
       </c>
     </row>
     <row r="18">
@@ -1733,7 +1733,7 @@
         <v>2733</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>838</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>3806</v>
@@ -1742,7 +1742,7 @@
         <v>0.7181648979198039</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2202807624754853</v>
+        <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5861</v>
+        <v>5918</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2018999927911478</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5948108848853957</v>
+        <v>0.6005378166653538</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -1775,19 +1775,19 @@
         <v>4723</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1916</v>
+        <v>1825</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8681</v>
+        <v>8655</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.345743490694109</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1402814201628398</v>
+        <v>0.1336002418652236</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6355846827004858</v>
+        <v>0.633652826650948</v>
       </c>
     </row>
     <row r="20">
@@ -1817,19 +1817,19 @@
         <v>2921</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6018</v>
+        <v>5976</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2964742865295888</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0927466417532205</v>
+        <v>0.09294670362750904</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6107113946122004</v>
+        <v>0.6064336200351004</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1838,19 +1838,19 @@
         <v>2921</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>909</v>
+        <v>934</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6800</v>
+        <v>6942</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2138696043421113</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06656523217775236</v>
+        <v>0.06835151360131897</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4978322653974193</v>
+        <v>0.5082720133329586</v>
       </c>
     </row>
     <row r="21">
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2968</v>
+        <v>3806</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2818351020801962</v>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7797192375245148</v>
+        <v>1</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4887</v>
+        <v>4908</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1822048485731595</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4959469914947028</v>
+        <v>0.4980661983166617</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -1909,19 +1909,19 @@
         <v>2868</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6786</v>
+        <v>6349</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2099641713918189</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05844720965740013</v>
+        <v>0.05838011284970344</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4967999532206133</v>
+        <v>0.4647903736742636</v>
       </c>
     </row>
     <row r="22">
@@ -1951,19 +1951,19 @@
         <v>3148</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>977</v>
+        <v>985</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6299</v>
+        <v>6266</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3194208721061039</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09913509959851635</v>
+        <v>0.09990916706579436</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6392494573900486</v>
+        <v>0.6359270631069317</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -1972,19 +1972,19 @@
         <v>3147</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>973</v>
+        <v>983</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6424</v>
+        <v>6396</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2304227335719607</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07121573579827918</v>
+        <v>0.07196857707799842</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4703405045122535</v>
+        <v>0.4682507079807385</v>
       </c>
     </row>
     <row r="23">
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4702</v>
+        <v>4722</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2369825475421585</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5804336981424969</v>
+        <v>0.5829573458019027</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5876</v>
+        <v>5024</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1846235290161239</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.551963199664691</v>
+        <v>0.4718903954938326</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -2118,19 +2118,19 @@
         <v>3885</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7739</v>
+        <v>7792</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2072474276572703</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05278011450868308</v>
+        <v>0.05214350212843415</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4128252383746274</v>
+        <v>0.4156316079431692</v>
       </c>
     </row>
     <row r="25">
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.430664182908541</v>
+        <v>0.4305719716236384</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4937</v>
+        <v>5793</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1832581417219096</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4637065380781015</v>
+        <v>0.5441685157133391</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -2189,19 +2189,19 @@
         <v>2798</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>851</v>
+        <v>833</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6653</v>
+        <v>6601</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1492650735853012</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04539417769464556</v>
+        <v>0.04443615171652916</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3549076592311356</v>
+        <v>0.3521168912908535</v>
       </c>
     </row>
     <row r="26">
@@ -2218,19 +2218,19 @@
         <v>3624</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1705</v>
+        <v>918</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6369</v>
+        <v>6333</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4473523125270307</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2105541367932398</v>
+        <v>0.1133782440237102</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7863289068106415</v>
+        <v>0.7818840926104011</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4136</v>
+        <v>5875</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09162907086095481</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3885111408579033</v>
+        <v>0.5518764341996498</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -2260,19 +2260,19 @@
         <v>4599</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1753</v>
+        <v>1788</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8481</v>
+        <v>8415</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2453341400220901</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09348298021743109</v>
+        <v>0.09536488292819015</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4523896714548555</v>
+        <v>0.4488800142941539</v>
       </c>
     </row>
     <row r="27">
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4383</v>
+        <v>4397</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2110779519889192</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5411149512949817</v>
+        <v>0.5428431861482835</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -2310,19 +2310,19 @@
         <v>5754</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>8698</v>
+        <v>8688</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5404892584010116</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2643490996436192</v>
+        <v>0.2640517963808298</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8170198640543063</v>
+        <v>0.816065406673775</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>8</v>
@@ -2331,19 +2331,19 @@
         <v>7464</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>3688</v>
+        <v>3652</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>11369</v>
+        <v>11693</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3981533587353384</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.19674551716854</v>
+        <v>0.194820877686755</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6064262286186018</v>
+        <v>0.6237444927346363</v>
       </c>
     </row>
     <row r="28">
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4605</v>
+        <v>4676</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1837170479555324</v>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4622938315078468</v>
+        <v>0.4694093930019061</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -2477,19 +2477,19 @@
         <v>5100</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1799</v>
+        <v>1863</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9064</v>
+        <v>9639</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3406963257807386</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1201740533099475</v>
+        <v>0.1244673069738294</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6055817471160121</v>
+        <v>0.6439577729340084</v>
       </c>
     </row>
     <row r="30">
@@ -2519,19 +2519,19 @@
         <v>4588</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1831</v>
+        <v>1797</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7346</v>
+        <v>7379</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4605385964757394</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1838311973951519</v>
+        <v>0.1804214390176741</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7374073898939272</v>
+        <v>0.7407346954130638</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -2540,19 +2540,19 @@
         <v>4588</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1788</v>
+        <v>1820</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>8565</v>
+        <v>8472</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3065138778595432</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1194772357167979</v>
+        <v>0.1216061906680007</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5722330000520617</v>
+        <v>0.5660200627024911</v>
       </c>
     </row>
     <row r="31">
@@ -2637,19 +2637,19 @@
         <v>3544</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>901</v>
+        <v>920</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6320</v>
+        <v>7103</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3557443555687282</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09042203179891331</v>
+        <v>0.09231927785168093</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6344121513065132</v>
+        <v>0.7130006921945286</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -2658,19 +2658,19 @@
         <v>5281</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2384</v>
+        <v>1832</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8887</v>
+        <v>9282</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3527897963597181</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.159274362557057</v>
+        <v>0.1224033322142697</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5937005345133383</v>
+        <v>0.6201501049901686</v>
       </c>
     </row>
     <row r="33">
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4424</v>
+        <v>4492</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2034408372729936</v>
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8000660744339844</v>
+        <v>0.8123986712316786</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5226</v>
+        <v>4403</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1372494399976407</v>
@@ -2808,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.637646575446688</v>
+        <v>0.5372449510546305</v>
       </c>
     </row>
     <row r="35">
@@ -2932,7 +2932,7 @@
         <v>4404</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1105</v>
+        <v>1037</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>5529</v>
@@ -2941,7 +2941,7 @@
         <v>0.7965591627270064</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1999339255660157</v>
+        <v>0.1876013287683213</v>
       </c>
       <c r="P37" s="6" t="n">
         <v>1</v>
@@ -2953,7 +2953,7 @@
         <v>7071</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2970</v>
+        <v>3793</v>
       </c>
       <c r="T37" s="5" t="n">
         <v>8196</v>
@@ -2962,7 +2962,7 @@
         <v>0.8627505600023593</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.36235342455331</v>
+        <v>0.4627550489453694</v>
       </c>
       <c r="W37" s="6" t="n">
         <v>1</v>
@@ -3057,19 +3057,19 @@
         <v>8870</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>4503</v>
+        <v>4582</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>14113</v>
+        <v>14432</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2662610094263413</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1351803355467813</v>
+        <v>0.1375458788888443</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4236466516371003</v>
+        <v>0.4332447562475061</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>9</v>
@@ -3078,19 +3078,19 @@
         <v>8690</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>4480</v>
+        <v>4620</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>14874</v>
+        <v>14949</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1773090782634331</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.09139629209161486</v>
+        <v>0.09425922117981216</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3034770822376806</v>
+        <v>0.3049938693188232</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>18</v>
@@ -3099,19 +3099,19 @@
         <v>17560</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>11310</v>
+        <v>11380</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>26295</v>
+        <v>25246</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2133025384103329</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.137384250497102</v>
+        <v>0.1382380243743739</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.3194107345516055</v>
+        <v>0.3066642005008935</v>
       </c>
     </row>
     <row r="40">
@@ -3128,19 +3128,19 @@
         <v>3826</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>959</v>
+        <v>995</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>8088</v>
+        <v>8599</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1148394599023754</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02879666249462089</v>
+        <v>0.02986460200530949</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2427979413746257</v>
+        <v>0.2581469714718018</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>11</v>
@@ -3149,19 +3149,19 @@
         <v>10495</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>5612</v>
+        <v>5744</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>16950</v>
+        <v>16230</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2141366276093082</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1145064184447785</v>
+        <v>0.1171997327500351</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3458221935930584</v>
+        <v>0.3311382252029786</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>15</v>
@@ -3170,19 +3170,19 @@
         <v>14321</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>8605</v>
+        <v>8522</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>21686</v>
+        <v>21583</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.173957076678436</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1045215575360742</v>
+        <v>0.1035194389042259</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2634211474162651</v>
+        <v>0.2621731078008193</v>
       </c>
     </row>
     <row r="41">
@@ -3199,19 +3199,19 @@
         <v>7818</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3976</v>
+        <v>3825</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>13436</v>
+        <v>13118</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2346977693506905</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1193664147939</v>
+        <v>0.1148196215680411</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4033333122359573</v>
+        <v>0.3937948721674372</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>5</v>
@@ -3220,19 +3220,19 @@
         <v>4518</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1798</v>
+        <v>1696</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>9147</v>
+        <v>10168</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0921835903943046</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03668452049170678</v>
+        <v>0.03459530586391395</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1866204114835412</v>
+        <v>0.2074576914533448</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>13</v>
@@ -3241,19 +3241,19 @@
         <v>12336</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>6870</v>
+        <v>7426</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>19971</v>
+        <v>19933</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1498504488151793</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08345230003986091</v>
+        <v>0.09019960610724559</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2425861544335825</v>
+        <v>0.2421308604350181</v>
       </c>
     </row>
     <row r="42">
@@ -3270,19 +3270,19 @@
         <v>12799</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7866</v>
+        <v>8040</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>18795</v>
+        <v>18259</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3842017613205927</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2361283563301741</v>
+        <v>0.2413465017351882</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5642112530473179</v>
+        <v>0.5481109888688576</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>26</v>
@@ -3291,19 +3291,19 @@
         <v>25309</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>18771</v>
+        <v>18573</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>32196</v>
+        <v>31991</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.516370703732954</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3829729654161865</v>
+        <v>0.3789406508093999</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.656887928652059</v>
+        <v>0.6526956968062866</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>40</v>
@@ -3312,19 +3312,19 @@
         <v>38107</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>29879</v>
+        <v>29656</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>47328</v>
+        <v>46867</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4628899360960518</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3629484324119337</v>
+        <v>0.3602303177427729</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5748999209868203</v>
+        <v>0.569293510753857</v>
       </c>
     </row>
     <row r="43">
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4507</v>
+        <v>3382</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2331243929116459</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>1</v>
+        <v>0.7503590288400654</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3701,19 +3701,19 @@
         <v>3102</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>978</v>
+        <v>994</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6345</v>
+        <v>6411</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3638374358002979</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1147309112969553</v>
+        <v>0.116622194548844</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7440604816511366</v>
+        <v>0.7518996372936314</v>
       </c>
     </row>
     <row r="5">
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3514</v>
+        <v>4507</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2743544751316566</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7796068600458679</v>
+        <v>1</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4966</v>
+        <v>4880</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1449990634264608</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5824242418540528</v>
+        <v>0.572246195012268</v>
       </c>
     </row>
     <row r="6">
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4110</v>
+        <v>4723</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1129736883784877</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4820143217579659</v>
+        <v>0.5539320788300363</v>
       </c>
     </row>
     <row r="7">
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4020</v>
+        <v>3047</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2500317860836874</v>
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>1</v>
+        <v>0.7578977212293808</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -3898,19 +3898,19 @@
         <v>3225</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1013</v>
+        <v>996</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6460</v>
+        <v>6436</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3781898123947536</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1188393864066277</v>
+        <v>0.1167957048933178</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7576317712651803</v>
+        <v>0.7548261833471979</v>
       </c>
     </row>
     <row r="8">
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3610</v>
+        <v>3596</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1877839655037457</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7874050671664781</v>
+        <v>0.7844050646837196</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3886</v>
+        <v>3954</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1911643328914562</v>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7841690042858238</v>
+        <v>0.7979398080017641</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5604</v>
+        <v>4730</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1895397680236526</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5873803611727022</v>
+        <v>0.4957779617893964</v>
       </c>
     </row>
     <row r="10">
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3718</v>
+        <v>4585</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4024986674660982</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8108506219634801</v>
+        <v>1</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -4141,7 +4141,7 @@
         <v>3048</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>4955</v>
@@ -4150,7 +4150,7 @@
         <v>0.6152035087932793</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2005110993887924</v>
+        <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -4162,19 +4162,19 @@
         <v>4894</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1960</v>
+        <v>1976</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7718</v>
+        <v>7774</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5129800600379294</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2054300692807983</v>
+        <v>0.2070800391445202</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8089624033173937</v>
+        <v>0.8149360670414814</v>
       </c>
     </row>
     <row r="12">
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3883</v>
+        <v>3897</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1936321583152645</v>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7836844655607952</v>
+        <v>0.7863824810335084</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -4233,19 +4233,19 @@
         <v>2838</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6541</v>
+        <v>5778</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.297480171938418</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09568900953568057</v>
+        <v>0.0963411249012405</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6856672348909784</v>
+        <v>0.6057004459009916</v>
       </c>
     </row>
     <row r="13">
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4527</v>
+        <v>4828</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0839817185976546</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3692711645830394</v>
+        <v>0.3938013429738739</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -4358,19 +4358,19 @@
         <v>5982</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2872</v>
+        <v>2758</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11453</v>
+        <v>10540</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3342359032821804</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1604301011166969</v>
+        <v>0.1540948994514615</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6398735236284488</v>
+        <v>0.5888358475590709</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -4379,19 +4379,19 @@
         <v>7012</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2933</v>
+        <v>2976</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12091</v>
+        <v>13062</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2325058386628497</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09726279697460627</v>
+        <v>0.09868843834003796</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4009278042331423</v>
+        <v>0.433131600576849</v>
       </c>
     </row>
     <row r="15">
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5146</v>
+        <v>5843</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1426530260011667</v>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4197372947798979</v>
+        <v>0.4766536928595538</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -4429,19 +4429,19 @@
         <v>4802</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1812</v>
+        <v>1103</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10038</v>
+        <v>9280</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2682748078724987</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1012193480927364</v>
+        <v>0.06161746025405709</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5607949568813696</v>
+        <v>0.5184789841862041</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -4450,19 +4450,19 @@
         <v>6551</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2761</v>
+        <v>2722</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12367</v>
+        <v>12376</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2172086808326008</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09154794476373951</v>
+        <v>0.09026588585042594</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.410077088262402</v>
+        <v>0.4103883399867748</v>
       </c>
     </row>
     <row r="16">
@@ -4479,19 +4479,19 @@
         <v>5575</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1909</v>
+        <v>2158</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9452</v>
+        <v>9922</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4548076877646893</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1556907712052111</v>
+        <v>0.1760329570850901</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.771009401767854</v>
+        <v>0.8093271559060057</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -4500,19 +4500,19 @@
         <v>2911</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>864</v>
+        <v>890</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7229</v>
+        <v>7098</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1626427205817454</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04825272383199234</v>
+        <v>0.04974925257714653</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4038912533499924</v>
+        <v>0.3965405055915205</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -4521,19 +4521,19 @@
         <v>8487</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3774</v>
+        <v>4232</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14239</v>
+        <v>14635</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2814098094457876</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1251397032215315</v>
+        <v>0.1403441754336283</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4721314310939345</v>
+        <v>0.4852789275511633</v>
       </c>
     </row>
     <row r="17">
@@ -4550,19 +4550,19 @@
         <v>3905</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8444</v>
+        <v>8209</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3185575676364893</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08113549421016465</v>
+        <v>0.08011524486360233</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6888045232160306</v>
+        <v>0.6696557140293543</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -4571,19 +4571,19 @@
         <v>4204</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1038</v>
+        <v>1072</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8442</v>
+        <v>8745</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2348465682635755</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05801312243933747</v>
+        <v>0.05987127699251897</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.471671671822638</v>
+        <v>0.4885742602127038</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -4592,19 +4592,19 @@
         <v>8109</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3065</v>
+        <v>3896</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13736</v>
+        <v>13908</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2688756710587618</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1016464801243564</v>
+        <v>0.1291710357119671</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4554731954088951</v>
+        <v>0.4611826038916094</v>
       </c>
     </row>
     <row r="18">
@@ -4696,19 +4696,19 @@
         <v>3469</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1063</v>
+        <v>1046</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7971</v>
+        <v>7137</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2743366658335151</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08406432519550885</v>
+        <v>0.08272072706328815</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6303895707632455</v>
+        <v>0.5644159460639842</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -4717,19 +4717,19 @@
         <v>10003</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4573</v>
+        <v>5303</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15497</v>
+        <v>15603</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.388973877508578</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1778094380596818</v>
+        <v>0.20619252601358</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6025961359098767</v>
+        <v>0.6067305397915439</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -4738,19 +4738,19 @@
         <v>13472</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7667</v>
+        <v>7884</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20444</v>
+        <v>20971</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3511875029593996</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1998662130628745</v>
+        <v>0.2055226038557258</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5329332474634899</v>
+        <v>0.5466657763690878</v>
       </c>
     </row>
     <row r="20">
@@ -4767,19 +4767,19 @@
         <v>4891</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1869</v>
+        <v>1782</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9074</v>
+        <v>8393</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3867982970884716</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.147838994711576</v>
+        <v>0.1409418017604429</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7176205503255557</v>
+        <v>0.6637314978316796</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -4788,19 +4788,19 @@
         <v>5540</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2116</v>
+        <v>2021</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10757</v>
+        <v>10935</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2154052395288834</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08229956120300841</v>
+        <v>0.07857197720553187</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4182720186085596</v>
+        <v>0.4252048269322092</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -4809,19 +4809,19 @@
         <v>10431</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5550</v>
+        <v>5292</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17171</v>
+        <v>16459</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2718993061015467</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1446673874919422</v>
+        <v>0.137947060595608</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4476051508799024</v>
+        <v>0.4290544057448596</v>
       </c>
     </row>
     <row r="21">
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4856</v>
+        <v>4163</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07795818862308154</v>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3840007196956392</v>
+        <v>0.329237791580868</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -4859,19 +4859,19 @@
         <v>3506</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8515</v>
+        <v>8805</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1363114563967655</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04169384570834522</v>
+        <v>0.04121515046388723</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3310859453902623</v>
+        <v>0.342392646398652</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -4880,19 +4880,19 @@
         <v>4491</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1210</v>
+        <v>1132</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>10313</v>
+        <v>10124</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1170772269520121</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0315355966559703</v>
+        <v>0.02950124861434831</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2688412420273337</v>
+        <v>0.2638998574047537</v>
       </c>
     </row>
     <row r="22">
@@ -4909,19 +4909,19 @@
         <v>3299</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1050</v>
+        <v>1021</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6814</v>
+        <v>7312</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2609068484549318</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08307202686643181</v>
+        <v>0.08072109013402108</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.538897315667343</v>
+        <v>0.5782202955204457</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -4930,19 +4930,19 @@
         <v>6669</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2401</v>
+        <v>2637</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13052</v>
+        <v>13232</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.259309426565773</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09336170846170216</v>
+        <v>0.1025491571274385</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5075374463649988</v>
+        <v>0.5145383771829863</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8</v>
@@ -4951,19 +4951,19 @@
         <v>9968</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4749</v>
+        <v>4626</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17375</v>
+        <v>16504</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2598359639870416</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1238039906235194</v>
+        <v>0.1205964291728563</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.452933275656866</v>
+        <v>0.4302223002970498</v>
       </c>
     </row>
     <row r="23">
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5110</v>
+        <v>5051</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2146482042153722</v>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5501707103043155</v>
+        <v>0.5437730348755637</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6233</v>
+        <v>6056</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09934350364170574</v>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.310572982770444</v>
+        <v>0.3017716370920965</v>
       </c>
     </row>
     <row r="25">
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5047</v>
+        <v>4126</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1061935354504171</v>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5433557944885665</v>
+        <v>0.4441990871077243</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -5142,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6698</v>
+        <v>6787</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2191472176355743</v>
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6213081500776735</v>
+        <v>0.6295957686982527</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -5160,19 +5160,19 @@
         <v>3349</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8163</v>
+        <v>7881</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1668699829923896</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04976540171309388</v>
+        <v>0.04955586514555089</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4067585129975236</v>
+        <v>0.3926923250421865</v>
       </c>
     </row>
     <row r="26">
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4299</v>
+        <v>4802</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1140716125587635</v>
@@ -5201,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4628311377462486</v>
+        <v>0.5169977372292068</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -5213,16 +5213,16 @@
         <v>976</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6471</v>
+        <v>6427</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2898932752405359</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09053276083811117</v>
+        <v>0.09051849202136689</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6002877188070664</v>
+        <v>0.5961617478657746</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -5231,19 +5231,19 @@
         <v>4185</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1063</v>
+        <v>1081</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8434</v>
+        <v>8548</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2085194754886788</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05296294062319219</v>
+        <v>0.05385619761669899</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4202712448300059</v>
+        <v>0.4259492970785814</v>
       </c>
     </row>
     <row r="27">
@@ -5260,19 +5260,19 @@
         <v>5249</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2199</v>
+        <v>2076</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8273</v>
+        <v>8246</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5650866477754471</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2367116322913968</v>
+        <v>0.2235451673409636</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.890738713324445</v>
+        <v>0.8878196214198177</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>5</v>
@@ -5281,19 +5281,19 @@
         <v>5293</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2072</v>
+        <v>2039</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>8658</v>
+        <v>8652</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4909595071238899</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1922321192562856</v>
+        <v>0.1891616975775116</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8031262190647099</v>
+        <v>0.80256242949733</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>10</v>
@@ -5302,19 +5302,19 @@
         <v>10541</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6138</v>
+        <v>5257</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>14714</v>
+        <v>14689</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5252670378772258</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3058763481393185</v>
+        <v>0.2619679161894269</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.733191071247966</v>
+        <v>0.7319605185185259</v>
       </c>
     </row>
     <row r="28">
@@ -5406,19 +5406,19 @@
         <v>3052</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6732</v>
+        <v>6929</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3015064829638809</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08607740503993834</v>
+        <v>0.08617155973222229</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6649644571022173</v>
+        <v>0.6844505242634233</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -5427,19 +5427,19 @@
         <v>2977</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6606</v>
+        <v>6081</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2683305808130225</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08485436177320284</v>
+        <v>0.08429812847061512</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.595413051361794</v>
+        <v>0.5481190218061628</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -5448,19 +5448,19 @@
         <v>6030</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2849</v>
+        <v>2242</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11580</v>
+        <v>10687</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2841596130070791</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1342457263608221</v>
+        <v>0.1056411735368946</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5457089424082389</v>
+        <v>0.5036080705271004</v>
       </c>
     </row>
     <row r="30">
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4288</v>
+        <v>4424</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08952440460539197</v>
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4234994389953148</v>
+        <v>0.4369447122394838</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5421</v>
+        <v>3931</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04271427725487896</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2554603693296519</v>
+        <v>0.185239788785832</v>
       </c>
     </row>
     <row r="31">
@@ -5540,19 +5540,19 @@
         <v>5065</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2077</v>
+        <v>1168</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8381</v>
+        <v>8296</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.5002635383029337</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2051199836941259</v>
+        <v>0.1153891683095958</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.8278505077677013</v>
+        <v>0.8194030808981686</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5165</v>
+        <v>6117</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1833295369590936</v>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4655446670624364</v>
+        <v>0.5513131207622196</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6</v>
@@ -5582,19 +5582,19 @@
         <v>7099</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3090</v>
+        <v>3109</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>12254</v>
+        <v>12312</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3345464801442551</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1456217414136322</v>
+        <v>0.1465251541684951</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5774588288445525</v>
+        <v>0.5801915245514262</v>
       </c>
     </row>
     <row r="32">
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>4845</v>
+        <v>4820</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1087055741277934</v>
@@ -5623,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4785342707614629</v>
+        <v>0.4760814874973545</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -5632,19 +5632,19 @@
         <v>6084</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2973</v>
+        <v>2966</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>9143</v>
+        <v>9133</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5483398822278839</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2679861138007779</v>
+        <v>0.2672962265236541</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8240913697753716</v>
+        <v>0.8231988110226754</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -5653,19 +5653,19 @@
         <v>7185</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3131</v>
+        <v>3099</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12178</v>
+        <v>12299</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3385796295937868</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1475278247390598</v>
+        <v>0.1460247936235861</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.573909827284498</v>
+        <v>0.5796097062826333</v>
       </c>
     </row>
     <row r="33">
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.9005476184536232</v>
+        <v>0.9004817831062244</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>4278</v>
+        <v>4292</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1481568709545598</v>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.6390402448480785</v>
+        <v>0.6411341392532834</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2</v>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>9492</v>
+        <v>8058</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2495097004919538</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.7263390966314683</v>
+        <v>0.6166504283580126</v>
       </c>
     </row>
     <row r="36">
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4510</v>
+        <v>4532</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1577793582153701</v>
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6735839916551722</v>
+        <v>0.6769042233302128</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4622</v>
+        <v>4754</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.08082995385354853</v>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3536536412336589</v>
+        <v>0.363815600193634</v>
       </c>
     </row>
     <row r="37">
@@ -5947,7 +5947,7 @@
         <v>0.6440262585921069</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09945238154637685</v>
+        <v>0.09951821689377564</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1</v>
@@ -5980,19 +5980,19 @@
         <v>8751</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3301</v>
+        <v>4017</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>11946</v>
+        <v>11991</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6696603456544976</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2526393903068405</v>
+        <v>0.3073815061367205</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9141367320752262</v>
+        <v>0.9175658531457841</v>
       </c>
     </row>
     <row r="38">
@@ -6084,19 +6084,19 @@
         <v>11456</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>6199</v>
+        <v>6124</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>17579</v>
+        <v>18317</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1916361606190051</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1037011079521781</v>
+        <v>0.1024376226002854</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2940577750469088</v>
+        <v>0.306398945988577</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>20</v>
@@ -6105,19 +6105,19 @@
         <v>21962</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>14612</v>
+        <v>14906</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>30848</v>
+        <v>31481</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2705951630438409</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1800371759569567</v>
+        <v>0.1836559479770491</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3800768944500938</v>
+        <v>0.3878761890559846</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>31</v>
@@ -6126,19 +6126,19 @@
         <v>33418</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>24213</v>
+        <v>24374</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>44976</v>
+        <v>46045</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2371044853565009</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1717911101721128</v>
+        <v>0.1729325614287226</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.3191112570429627</v>
+        <v>0.326690696293803</v>
       </c>
     </row>
     <row r="40">
@@ -6155,19 +6155,19 @@
         <v>12038</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>6142</v>
+        <v>6643</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>20992</v>
+        <v>20326</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2013614805036091</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1027388711361396</v>
+        <v>0.1111163000117257</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3511463788282029</v>
+        <v>0.3400026821494214</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>12</v>
@@ -6176,19 +6176,19 @@
         <v>13696</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>7407</v>
+        <v>7752</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>21578</v>
+        <v>23601</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1687459166457902</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.09126334073806378</v>
+        <v>0.09551827591261187</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2658615296898084</v>
+        <v>0.2907900810602665</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>23</v>
@@ -6197,19 +6197,19 @@
         <v>25733</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>15757</v>
+        <v>17421</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>35452</v>
+        <v>36812</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1825798976132282</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1117986805110251</v>
+        <v>0.1236036437059721</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2515336523254374</v>
+        <v>0.2611863402213895</v>
       </c>
     </row>
     <row r="41">
@@ -6226,19 +6226,19 @@
         <v>14531</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>8632</v>
+        <v>8263</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>23382</v>
+        <v>22828</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2430720952674582</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1443955488283878</v>
+        <v>0.1382132963373464</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3911287456569332</v>
+        <v>0.3818475070601625</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>16</v>
@@ -6247,19 +6247,19 @@
         <v>16644</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>10061</v>
+        <v>10317</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>25113</v>
+        <v>24967</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2050718790851661</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1239666462973481</v>
+        <v>0.1271215994720374</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3094135783742408</v>
+        <v>0.3076231626781035</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>29</v>
@@ -6268,19 +6268,19 @@
         <v>31175</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>22050</v>
+        <v>21552</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>42500</v>
+        <v>41394</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2211897751214271</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1564454232484497</v>
+        <v>0.1529097803214305</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3015390627752443</v>
+        <v>0.293693631342288</v>
       </c>
     </row>
     <row r="42">
@@ -6297,19 +6297,19 @@
         <v>21756</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>14499</v>
+        <v>14675</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>30125</v>
+        <v>29132</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3639302636099276</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2425261498991175</v>
+        <v>0.2454722081250846</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5039156645964727</v>
+        <v>0.4873113167141803</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>26</v>
@@ -6318,19 +6318,19 @@
         <v>28860</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>20504</v>
+        <v>20494</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>38034</v>
+        <v>38066</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3555870412252027</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2526362011552905</v>
+        <v>0.2525013051844198</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4686184580266811</v>
+        <v>0.4690087097683295</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>46</v>
@@ -6339,19 +6339,19 @@
         <v>50616</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>38675</v>
+        <v>40024</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>61951</v>
+        <v>63457</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3591258419088438</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2743995213441205</v>
+        <v>0.2839718456373725</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4395441361941764</v>
+        <v>0.4502306160816868</v>
       </c>
     </row>
     <row r="43">
@@ -6728,7 +6728,7 @@
         <v>3021</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>847</v>
+        <v>809</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>5574</v>
@@ -6737,7 +6737,7 @@
         <v>0.5419935808685865</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1519509917022741</v>
+        <v>0.1451483915080442</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>1</v>
@@ -6849,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4727</v>
+        <v>4765</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4580064191314135</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8480490082977259</v>
+        <v>0.8548516084919558</v>
       </c>
     </row>
     <row r="7">
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7159733005340418</v>
+        <v>0.7159372495613284</v>
       </c>
     </row>
     <row r="10">
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3788</v>
+        <v>3795</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2078542080308532</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8065119658168823</v>
+        <v>0.8080665932683019</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3835</v>
+        <v>3817</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1500677245364402</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5895113236119118</v>
+        <v>0.586730843459477</v>
       </c>
     </row>
     <row r="11">
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3770</v>
+        <v>3754</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2008556043395272</v>
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8026983720842984</v>
+        <v>0.7992587994667845</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -7157,19 +7157,19 @@
         <v>2752</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>876</v>
+        <v>889</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5518</v>
+        <v>5564</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4230293330649605</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1346676603041926</v>
+        <v>0.1365998323352589</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8481714213936026</v>
+        <v>0.8552738099754443</v>
       </c>
     </row>
     <row r="12">
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2933</v>
+        <v>3752</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1959978435650151</v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6244087715144786</v>
+        <v>0.7987922184144514</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3831</v>
+        <v>3724</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1415076012966022</v>
@@ -7232,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5888459232033578</v>
+        <v>0.5723617165275297</v>
       </c>
     </row>
     <row r="13">
@@ -7340,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4604</v>
+        <v>4383</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.120897287199325</v>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6034822309835526</v>
+        <v>0.5745458202723236</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -7361,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4952</v>
+        <v>4345</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05512352725161467</v>
@@ -7370,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2960068858268622</v>
+        <v>0.2596778009715052</v>
       </c>
     </row>
     <row r="15">
@@ -7387,19 +7387,19 @@
         <v>2811</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>829</v>
+        <v>805</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5997</v>
+        <v>5968</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3087617092059742</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09108711366972015</v>
+        <v>0.08841053495092015</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.658822238026902</v>
+        <v>0.6555901944360001</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -7408,19 +7408,19 @@
         <v>3332</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6222</v>
+        <v>6705</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4367058007032743</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1074548868398109</v>
+        <v>0.1064179660443171</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8155128543745002</v>
+        <v>0.878823396499398</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -7429,19 +7429,19 @@
         <v>6142</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1982</v>
+        <v>2466</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>9980</v>
+        <v>10479</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3670982507257733</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1184556819373681</v>
+        <v>0.1473899444348028</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.5964845893731842</v>
+        <v>0.6263064881329852</v>
       </c>
     </row>
     <row r="16">
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5164</v>
+        <v>5266</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2159418674072072</v>
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.567278627133623</v>
+        <v>0.5785003529054422</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -7479,19 +7479,19 @@
         <v>3375</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>772</v>
+        <v>830</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6056</v>
+        <v>6619</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4423969120974007</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.101205220893854</v>
+        <v>0.1088282417074537</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7938540943581865</v>
+        <v>0.8676102290728994</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -7500,19 +7500,19 @@
         <v>5340</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1913</v>
+        <v>2004</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10158</v>
+        <v>10035</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3191948114262455</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1143280937600736</v>
+        <v>0.1197739908365263</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6071554109409055</v>
+        <v>0.5998056884171951</v>
       </c>
     </row>
     <row r="17">
@@ -7529,19 +7529,19 @@
         <v>4327</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1040</v>
+        <v>1129</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7314</v>
+        <v>7305</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4752964233868186</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1142645060905489</v>
+        <v>0.124025659743051</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8034575315379792</v>
+        <v>0.8024587157112053</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -7563,19 +7563,19 @@
         <v>4326</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1099</v>
+        <v>1205</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8345</v>
+        <v>9021</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2585834105963665</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06570635925020506</v>
+        <v>0.07205025654567235</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4987695491265227</v>
+        <v>0.5392036988465533</v>
       </c>
     </row>
     <row r="18">
@@ -7667,19 +7667,19 @@
         <v>4294</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1022</v>
+        <v>1103</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7614</v>
+        <v>7599</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4401513592981026</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1047668648694086</v>
+        <v>0.1130654627029162</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7805554086693143</v>
+        <v>0.7789341946830943</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -7688,19 +7688,19 @@
         <v>5148</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1902</v>
+        <v>1897</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9216</v>
+        <v>9248</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4061257013207086</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1500567863917787</v>
+        <v>0.1496606705042755</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7269806346743356</v>
+        <v>0.7294824119068799</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -7709,19 +7709,19 @@
         <v>9442</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4925</v>
+        <v>4124</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14440</v>
+        <v>14159</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4209228179115734</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2195728888450534</v>
+        <v>0.1838481652860706</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6437290751394342</v>
+        <v>0.6311785525909988</v>
       </c>
     </row>
     <row r="20">
@@ -7741,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6495</v>
+        <v>6572</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2351327813144149</v>
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6657821762873386</v>
+        <v>0.673673156755874</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -7759,19 +7759,19 @@
         <v>3729</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7818</v>
+        <v>8069</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2941800046242061</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07876360049798886</v>
+        <v>0.07865114511246146</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6167189946843717</v>
+        <v>0.636537080871926</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -7780,19 +7780,19 @@
         <v>6023</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2083</v>
+        <v>2274</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11380</v>
+        <v>11487</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2685014814267325</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09286824828566273</v>
+        <v>0.1013731157327928</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5073202214000814</v>
+        <v>0.5120964360648562</v>
       </c>
     </row>
     <row r="21">
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4637</v>
+        <v>4408</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08105226673558086</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3657903659263319</v>
+        <v>0.3477288388232773</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4350</v>
+        <v>6419</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04580416538697258</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1939125443609789</v>
+        <v>0.2861642401749663</v>
       </c>
     </row>
     <row r="22">
@@ -7872,19 +7872,19 @@
         <v>3168</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>968</v>
+        <v>984</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6528</v>
+        <v>6612</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3247158593874826</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09918403228636154</v>
+        <v>0.1008795803895803</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6691936329878362</v>
+        <v>0.6778280463607771</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7117</v>
+        <v>7299</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2186420273195044</v>
@@ -7905,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5613907774293107</v>
+        <v>0.5757325530802649</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -7914,19 +7914,19 @@
         <v>5939</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11273</v>
+        <v>11277</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2647715352747215</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09776273615818376</v>
+        <v>0.09773505532450978</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5025364610565619</v>
+        <v>0.5027266978906028</v>
       </c>
     </row>
     <row r="23">
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7891</v>
+        <v>7947</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1406732107396273</v>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5598391785341725</v>
+        <v>0.5638282530670725</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -8039,19 +8039,19 @@
         <v>4355</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1090</v>
+        <v>1107</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7749</v>
+        <v>7845</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.393073951656812</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09840569886013509</v>
+        <v>0.09990934297306994</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6993768073601183</v>
+        <v>0.7080269830143927</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -8060,19 +8060,19 @@
         <v>6338</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2232</v>
+        <v>2192</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12492</v>
+        <v>11857</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.251757439672152</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08868048676875165</v>
+        <v>0.08708813299002059</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4962144505595205</v>
+        <v>0.4709929045043875</v>
       </c>
     </row>
     <row r="25">
@@ -8089,19 +8089,19 @@
         <v>4433</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1109</v>
+        <v>1086</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8415</v>
+        <v>9064</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3145201076312349</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07865962088565938</v>
+        <v>0.07703193895861887</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5970005849219912</v>
+        <v>0.6430320523517916</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5789</v>
+        <v>6645</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2057640236268164</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5224371473189197</v>
+        <v>0.5997391268870145</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -8131,19 +8131,19 @@
         <v>6713</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3089</v>
+        <v>2992</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12437</v>
+        <v>11970</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2666554076725464</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.122702994445993</v>
+        <v>0.1188397568443753</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4940572653286768</v>
+        <v>0.4755026383709405</v>
       </c>
     </row>
     <row r="26">
@@ -8160,19 +8160,19 @@
         <v>5579</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2118</v>
+        <v>2107</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9534</v>
+        <v>10485</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.395804887349411</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1502825714251344</v>
+        <v>0.1494676293008076</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6764412133832064</v>
+        <v>0.7438532877395875</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -8194,19 +8194,19 @@
         <v>5579</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2172</v>
+        <v>2192</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11469</v>
+        <v>11427</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2216069806429471</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08627685320968186</v>
+        <v>0.08708194916288862</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4555850165400016</v>
+        <v>0.4539381562234898</v>
       </c>
     </row>
     <row r="27">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5850</v>
+        <v>6442</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1490017942797268</v>
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4150710507325083</v>
+        <v>0.4570310932025954</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4</v>
@@ -8244,19 +8244,19 @@
         <v>4445</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7919</v>
+        <v>7877</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4011620247163716</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1024509389376226</v>
+        <v>0.1021762471491926</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7147414100838365</v>
+        <v>0.7109013624933681</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6</v>
@@ -8265,19 +8265,19 @@
         <v>6545</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2463</v>
+        <v>2218</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>12449</v>
+        <v>11502</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2599801720123545</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09784939485738489</v>
+        <v>0.08811305045231645</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4945360852593697</v>
+        <v>0.4568838118741942</v>
       </c>
     </row>
     <row r="28">
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5468</v>
+        <v>5427</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.229034559264056</v>
@@ -8381,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.625443581919751</v>
+        <v>0.6207853940444015</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -8390,19 +8390,19 @@
         <v>2795</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>883</v>
+        <v>851</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7192</v>
+        <v>6675</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2297140810262791</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07252305988273773</v>
+        <v>0.06995753797416056</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5909925936687209</v>
+        <v>0.5485101149892896</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -8411,19 +8411,19 @@
         <v>4798</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1835</v>
+        <v>1842</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8949</v>
+        <v>9389</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2294300146748064</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08776941443537553</v>
+        <v>0.08807092987073364</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4279636785421419</v>
+        <v>0.4489863998726296</v>
       </c>
     </row>
     <row r="30">
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5458</v>
+        <v>5464</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1866129976839765</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6242960109238818</v>
+        <v>0.6249754310245104</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -8461,19 +8461,19 @@
         <v>3309</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6523</v>
+        <v>7410</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2719109900647037</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08909929071022649</v>
+        <v>0.08755589980404574</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5360293045182671</v>
+        <v>0.6089074141580318</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4</v>
@@ -8482,19 +8482,19 @@
         <v>4940</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1646</v>
+        <v>1206</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>10360</v>
+        <v>10039</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2362531335682915</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07869486232940215</v>
+        <v>0.05766439390552062</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4954454585193616</v>
+        <v>0.4800752982841917</v>
       </c>
     </row>
     <row r="31">
@@ -8511,19 +8511,19 @@
         <v>4115</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>994</v>
+        <v>1123</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7605</v>
+        <v>7630</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4706865511673752</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1136917202895667</v>
+        <v>0.1284496974550959</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.8699076593833571</v>
+        <v>0.8728413850360576</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4487</v>
+        <v>4986</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07959974739144147</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3687455862205942</v>
+        <v>0.4097637684019558</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5</v>
@@ -8553,19 +8553,19 @@
         <v>5083</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1963</v>
+        <v>1934</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9527</v>
+        <v>10017</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2430891418948653</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09387500392654652</v>
+        <v>0.09247137787059213</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4555923433617536</v>
+        <v>0.4790391363247305</v>
       </c>
     </row>
     <row r="32">
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>4420</v>
+        <v>4302</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1136658918845923</v>
@@ -8594,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5055954246850237</v>
+        <v>0.4920825664946669</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -8603,19 +8603,19 @@
         <v>5096</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8330</v>
+        <v>9091</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4187751815175758</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1636698429030339</v>
+        <v>0.1638875107265985</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6845491187179122</v>
+        <v>0.7470676597676574</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -8624,19 +8624,19 @@
         <v>6090</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2131</v>
+        <v>2841</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>10819</v>
+        <v>11041</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2912277098620368</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.101924592584908</v>
+        <v>0.1358573494397909</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5173892494493999</v>
+        <v>0.5280103087451119</v>
       </c>
     </row>
     <row r="33">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>3313</v>
+        <v>2809</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1690061946867111</v>
@@ -8740,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7148135614515991</v>
+        <v>0.6059725502657997</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>4616</v>
+        <v>3642</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05517277475499698</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3251306931671121</v>
+        <v>0.2564890717283799</v>
       </c>
     </row>
     <row r="35">
@@ -8794,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3103</v>
+        <v>2785</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1653831691225257</v>
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6693790701942677</v>
+        <v>0.6007866182727011</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -8815,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6319</v>
+        <v>6917</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2663517013126641</v>
@@ -8824,7 +8824,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.6608244734160112</v>
+        <v>0.7233465023516504</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3</v>
@@ -8833,19 +8833,19 @@
         <v>3314</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>778</v>
+        <v>793</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>7921</v>
+        <v>7340</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2333901042883913</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05479101524065077</v>
+        <v>0.05586988887129926</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5578813587761273</v>
+        <v>0.5169588599456647</v>
       </c>
     </row>
     <row r="36">
@@ -8899,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>7966</v>
+        <v>7043</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1604807003507476</v>
@@ -8908,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5610404955616695</v>
+        <v>0.4960750962207506</v>
       </c>
     </row>
     <row r="37">
@@ -8928,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2841</v>
+        <v>2955</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1740233885422888</v>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6129355203393423</v>
+        <v>0.6374528550382076</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>5</v>
@@ -8946,7 +8946,7 @@
         <v>7016</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3244</v>
+        <v>2646</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>9563</v>
@@ -8955,7 +8955,7 @@
         <v>0.7336482986873358</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3391755265839888</v>
+        <v>0.2766534976483498</v>
       </c>
       <c r="P37" s="6" t="n">
         <v>1</v>
@@ -8967,19 +8967,19 @@
         <v>7822</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3449</v>
+        <v>3337</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>11781</v>
+        <v>11275</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5509564206058641</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2429509184538535</v>
+        <v>0.2350275820956614</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.8297696132474235</v>
+        <v>0.7941541779337822</v>
       </c>
     </row>
     <row r="38">
@@ -9071,19 +9071,19 @@
         <v>11143</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>6248</v>
+        <v>5503</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>18217</v>
+        <v>18038</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2172964112123894</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1218495667186171</v>
+        <v>0.1073106239483841</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3552547090983913</v>
+        <v>0.3517759010470973</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>16</v>
@@ -9092,19 +9092,19 @@
         <v>16019</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>9921</v>
+        <v>9647</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>23974</v>
+        <v>23345</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2658760691545864</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1646700272429263</v>
+        <v>0.1601220683622272</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3979300091435926</v>
+        <v>0.3874785861161484</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>26</v>
@@ -9113,19 +9113,19 @@
         <v>27161</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>18352</v>
+        <v>19248</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>37610</v>
+        <v>37856</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2435398874559074</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1645492194268222</v>
+        <v>0.172582110948147</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.3372274808387563</v>
+        <v>0.3394312086161756</v>
       </c>
     </row>
     <row r="40">
@@ -9142,19 +9142,19 @@
         <v>11935</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>6304</v>
+        <v>6613</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>18412</v>
+        <v>19200</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.23275448846921</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1229440762911188</v>
+        <v>0.1289615671436667</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3590606284697368</v>
+        <v>0.3744344376262063</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>14</v>
@@ -9163,19 +9163,19 @@
         <v>16173</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>9840</v>
+        <v>9176</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>23857</v>
+        <v>24439</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2684369287759531</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1633327660682641</v>
+        <v>0.1523084286620429</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3959838822041974</v>
+        <v>0.4056449623830334</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>25</v>
@@ -9184,19 +9184,19 @@
         <v>28108</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>18972</v>
+        <v>19033</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>39416</v>
+        <v>37695</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2520306899528635</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1701070923579905</v>
+        <v>0.1706562993984858</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3534227672544126</v>
+        <v>0.3379896443118315</v>
       </c>
     </row>
     <row r="41">
@@ -9213,19 +9213,19 @@
         <v>16806</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>10344</v>
+        <v>11003</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>23899</v>
+        <v>24480</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3277412144159592</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2017311679717394</v>
+        <v>0.2145784971320333</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4660652107263029</v>
+        <v>0.4774061113641611</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>7</v>
@@ -9234,19 +9234,19 @@
         <v>7808</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>3685</v>
+        <v>3349</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>14784</v>
+        <v>14330</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1295947119649372</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.06117203124708093</v>
+        <v>0.0555911974146631</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2453861725676109</v>
+        <v>0.2378581348709499</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>23</v>
@@ -9255,19 +9255,19 @@
         <v>24614</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>16575</v>
+        <v>16743</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>34344</v>
+        <v>34628</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2206994349946858</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.148620151021357</v>
+        <v>0.1501227713356597</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3079444143033644</v>
+        <v>0.3104927979965185</v>
       </c>
     </row>
     <row r="42">
@@ -9284,19 +9284,19 @@
         <v>11394</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6244</v>
+        <v>6729</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>18263</v>
+        <v>19019</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2222078859024415</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1217616446266111</v>
+        <v>0.1312187417655112</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3561632901393209</v>
+        <v>0.3708904150432137</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>17</v>
@@ -9305,19 +9305,19 @@
         <v>20249</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>12876</v>
+        <v>13473</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>29529</v>
+        <v>29510</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3360922901045232</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2137159796555611</v>
+        <v>0.2236271009900762</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4901169203267113</v>
+        <v>0.4898009245130661</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>28</v>
@@ -9326,19 +9326,19 @@
         <v>31644</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>22572</v>
+        <v>21908</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>42915</v>
+        <v>43130</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2837299875965433</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.202393983081814</v>
+        <v>0.1964343607774975</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3847918042513971</v>
+        <v>0.3867246231885978</v>
       </c>
     </row>
     <row r="43">
@@ -9892,13 +9892,13 @@
         <v>5176</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1838701255079059</v>
+        <v>0.1838701255079058</v>
       </c>
       <c r="V9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7919791221076991</v>
+        <v>0.7919791221076989</v>
       </c>
     </row>
     <row r="10">
@@ -9952,7 +9952,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6535</v>
+        <v>4592</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1448857319288808</v>
@@ -9961,7 +9961,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>1</v>
+        <v>0.7027291775518106</v>
       </c>
     </row>
     <row r="11">
@@ -10182,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4910</v>
+        <v>4914</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2283333847726798</v>
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.826361824807903</v>
+        <v>0.8269625535998864</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -10200,19 +10200,19 @@
         <v>2268</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5078</v>
+        <v>5030</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2576135505598691</v>
+        <v>0.257613550559869</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06810386530512202</v>
+        <v>0.07107498105300325</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5768486150388237</v>
+        <v>0.5713930805505198</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -10221,19 +10221,19 @@
         <v>3625</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>874</v>
+        <v>936</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7281</v>
+        <v>7531</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2458138872458885</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05927907762817785</v>
+        <v>0.0634983060955701</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4937857737736221</v>
+        <v>0.51075622641179</v>
       </c>
     </row>
     <row r="15">
@@ -10253,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4546</v>
+        <v>4245</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1581558187903025</v>
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7650600961689041</v>
+        <v>0.7144567719382645</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -10274,16 +10274,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3990</v>
+        <v>3776</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.1412170144657463</v>
+        <v>0.1412170144657462</v>
       </c>
       <c r="O15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.453274714925391</v>
+        <v>0.4289896857251941</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -10292,19 +10292,19 @@
         <v>2183</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5820</v>
+        <v>5457</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1480432117429013</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03833236543144147</v>
+        <v>0.03963835757812319</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3946795437191082</v>
+        <v>0.3700831648910438</v>
       </c>
     </row>
     <row r="16">
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4914</v>
+        <v>4738</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1911101084660503</v>
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8270157111453222</v>
+        <v>0.7973629687879216</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -10345,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3584</v>
+        <v>4288</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1070990535639264</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4071395770505323</v>
+        <v>0.4870763334725734</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6023</v>
+        <v>6341</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1409548100409307</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4084931905725023</v>
+        <v>0.4300441662697924</v>
       </c>
     </row>
     <row r="17">
@@ -10413,19 +10413,19 @@
         <v>4349</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2139</v>
+        <v>1909</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6998</v>
+        <v>6893</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4940703814104583</v>
+        <v>0.4940703814104582</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.242986100242845</v>
+        <v>0.2168487906204689</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7949491380575328</v>
+        <v>0.7830550445661157</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -10434,19 +10434,19 @@
         <v>6859</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3309</v>
+        <v>3467</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10480</v>
+        <v>10456</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4651880909702794</v>
+        <v>0.4651880909702795</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.224383084333711</v>
+        <v>0.2350992025889554</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7107213708547452</v>
+        <v>0.7091038682543541</v>
       </c>
     </row>
     <row r="18">
@@ -10538,19 +10538,19 @@
         <v>7436</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3230</v>
+        <v>3009</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12375</v>
+        <v>12106</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4440325529914967</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1928705702762698</v>
+        <v>0.179652833220796</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7389261746310042</v>
+        <v>0.7228621671636967</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -10562,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4116</v>
+        <v>4205</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1058557632814894</v>
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3157967550009335</v>
+        <v>0.3226217430336688</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -10580,19 +10580,19 @@
         <v>8816</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4167</v>
+        <v>4370</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14386</v>
+        <v>15319</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2960286367111376</v>
+        <v>0.2960286367111375</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1399256722892814</v>
+        <v>0.1467270272489689</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4830721116187539</v>
+        <v>0.5144097926691771</v>
       </c>
     </row>
     <row r="20">
@@ -10612,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5516</v>
+        <v>5149</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0641768258271339</v>
@@ -10621,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3293524985413564</v>
+        <v>0.3074563239497372</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -10630,19 +10630,19 @@
         <v>3370</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1319</v>
+        <v>1210</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6395</v>
+        <v>6129</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.258562400330248</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1011870798761852</v>
+        <v>0.09281893565271221</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4907007375809225</v>
+        <v>0.4702412196251816</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -10651,19 +10651,19 @@
         <v>4445</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1783</v>
+        <v>1447</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8609</v>
+        <v>8732</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1492501577951234</v>
+        <v>0.1492501577951233</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05986092628257917</v>
+        <v>0.04858500582383194</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2890958712903983</v>
+        <v>0.2932236778257273</v>
       </c>
     </row>
     <row r="21">
@@ -10680,19 +10680,19 @@
         <v>4305</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9195</v>
+        <v>9189</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2570699543508333</v>
+        <v>0.2570699543508334</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06487472070233326</v>
+        <v>0.06503865558361782</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5490246405551805</v>
+        <v>0.5486698600347351</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -10701,19 +10701,19 @@
         <v>1741</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4804</v>
+        <v>5129</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1335864349877442</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03656648779053475</v>
+        <v>0.03591361709948714</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3685731763005952</v>
+        <v>0.3935360852809763</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -10722,19 +10722,19 @@
         <v>6046</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2553</v>
+        <v>2697</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11130</v>
+        <v>11017</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2030270838229926</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08573290832916061</v>
+        <v>0.09057363633363573</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3737555473084551</v>
+        <v>0.3699469027209772</v>
       </c>
     </row>
     <row r="22">
@@ -10751,19 +10751,19 @@
         <v>3931</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1084</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9022</v>
+        <v>9017</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2347206668305359</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06471667823558977</v>
+        <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5387370531928026</v>
+        <v>0.5384351798566364</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -10772,19 +10772,19 @@
         <v>6543</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3625</v>
+        <v>3631</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9306</v>
+        <v>9325</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5019954014005185</v>
+        <v>0.5019954014005186</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2781156056900724</v>
+        <v>0.2786366105847936</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7140027545634644</v>
+        <v>0.7154937264043637</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -10793,19 +10793,19 @@
         <v>10473</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6453</v>
+        <v>5926</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16013</v>
+        <v>15649</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3516941216707465</v>
+        <v>0.3516941216707464</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2166797431752606</v>
+        <v>0.1990021623003008</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5377201062694592</v>
+        <v>0.5254734797315153</v>
       </c>
     </row>
     <row r="23">
@@ -10897,19 +10897,19 @@
         <v>3683</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1281</v>
+        <v>1362</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7454</v>
+        <v>7528</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2343742464155481</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.081492420519794</v>
+        <v>0.08668681037664505</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4743019025862549</v>
+        <v>0.4790187154178381</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -10918,19 +10918,19 @@
         <v>3246</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1232</v>
+        <v>1267</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5726</v>
+        <v>5855</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3198328695971667</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1213522276039779</v>
+        <v>0.1248080597820498</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5641417066140448</v>
+        <v>0.5768241742276176</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
@@ -10939,19 +10939,19 @@
         <v>6929</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3409</v>
+        <v>3393</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11118</v>
+        <v>11140</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.267910158896371</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.131808952776332</v>
+        <v>0.1311706662299116</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4298282455995967</v>
+        <v>0.4306954099375869</v>
       </c>
     </row>
     <row r="25">
@@ -10971,16 +10971,16 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5640</v>
+        <v>4995</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.09513733117036093</v>
+        <v>0.0951373311703609</v>
       </c>
       <c r="H25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3588792013879021</v>
+        <v>0.3178717809743006</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -10992,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4644</v>
+        <v>4013</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1352857812506953</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4575570506922681</v>
+        <v>0.3953985811298421</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -11010,19 +11010,19 @@
         <v>2868</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>707</v>
+        <v>802</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6501</v>
+        <v>7068</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1108924985017296</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02734342859666718</v>
+        <v>0.03101886270020865</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2513541371602044</v>
+        <v>0.2732581783310794</v>
       </c>
     </row>
     <row r="26">
@@ -11042,16 +11042,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3764</v>
+        <v>4255</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.05512427098061934</v>
+        <v>0.05512427098061932</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2394927432700504</v>
+        <v>0.2707595945819358</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -11060,19 +11060,19 @@
         <v>2384</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5331</v>
+        <v>5029</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2349068966066191</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0589938543804431</v>
+        <v>0.06084258725854146</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5251852056817382</v>
+        <v>0.4954321191635351</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -11081,19 +11081,19 @@
         <v>3251</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1200</v>
+        <v>1170</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6922</v>
+        <v>6745</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.125675072925471</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04641008082703552</v>
+        <v>0.04524150154469783</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.267609945931925</v>
+        <v>0.2607781974469634</v>
       </c>
     </row>
     <row r="27">
@@ -11110,19 +11110,19 @@
         <v>9670</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5634</v>
+        <v>6005</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>12873</v>
+        <v>13145</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6153641514334717</v>
+        <v>0.6153641514334716</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3584973896474278</v>
+        <v>0.3821077627449894</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8191442801225129</v>
+        <v>0.8364481643148112</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>5</v>
@@ -11131,19 +11131,19 @@
         <v>3146</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1249</v>
+        <v>1184</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5760</v>
+        <v>5658</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3099744525455191</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1230956405965868</v>
+        <v>0.1166837666226221</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5674756493905647</v>
+        <v>0.5574444136490601</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>15</v>
@@ -11152,19 +11152,19 @@
         <v>12817</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>8069</v>
+        <v>8187</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>17076</v>
+        <v>17347</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4955222696764283</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3119701942874815</v>
+        <v>0.3165318875922798</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6602148893879405</v>
+        <v>0.6706905622917563</v>
       </c>
     </row>
     <row r="28">
@@ -11256,19 +11256,19 @@
         <v>4096</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1801</v>
+        <v>1729</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7584</v>
+        <v>7471</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2692140266205547</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1183819996226457</v>
+        <v>0.1136180911214318</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4984240747335725</v>
+        <v>0.4910419289033883</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -11277,19 +11277,19 @@
         <v>2175</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3954</v>
+        <v>3976</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3958056581662187</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1094364277512487</v>
+        <v>0.1078114486377823</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7196321636338687</v>
+        <v>0.7236172066145302</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -11298,19 +11298,19 @@
         <v>6271</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3341</v>
+        <v>3550</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9927</v>
+        <v>9819</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3027976284701724</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1613449214119955</v>
+        <v>0.1714054737499728</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4793495144188861</v>
+        <v>0.4741556576720729</v>
       </c>
     </row>
     <row r="30">
@@ -11327,19 +11327,19 @@
         <v>2843</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1076</v>
+        <v>1015</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6323</v>
+        <v>5500</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1868551424061626</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07069221328884559</v>
+        <v>0.06673462674268969</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4155498328417351</v>
+        <v>0.3614581006152573</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -11348,19 +11348,19 @@
         <v>1464</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3442</v>
+        <v>3447</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2663909077912935</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0653602421248477</v>
+        <v>0.06630297047811638</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6265209083242711</v>
+        <v>0.6274220998674218</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>8</v>
@@ -11369,19 +11369,19 @@
         <v>4307</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1976</v>
+        <v>2023</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7664</v>
+        <v>7458</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2079552534078549</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09542951580705526</v>
+        <v>0.0977076548832955</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3700714709196458</v>
+        <v>0.3601186897032844</v>
       </c>
     </row>
     <row r="31">
@@ -11398,19 +11398,19 @@
         <v>3869</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1647</v>
+        <v>1715</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7183</v>
+        <v>7452</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2542738583808961</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1082711860357038</v>
+        <v>0.1127316087779023</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4720818043215455</v>
+        <v>0.4897789145484365</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -11432,19 +11432,19 @@
         <v>3869</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1491</v>
+        <v>1307</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>7334</v>
+        <v>7550</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1868173297275801</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07201904570489867</v>
+        <v>0.0631018238376105</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3541607939187607</v>
+        <v>0.3645610153600828</v>
       </c>
     </row>
     <row r="32">
@@ -11461,19 +11461,19 @@
         <v>4407</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1677</v>
+        <v>1739</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7544</v>
+        <v>8188</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2896569725923868</v>
+        <v>0.2896569725923867</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1101965471398167</v>
+        <v>0.1143242885444476</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4958331504772071</v>
+        <v>0.5381745308322182</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -11482,19 +11482,19 @@
         <v>1856</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3863</v>
+        <v>3703</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3378034340424877</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1000753139907231</v>
+        <v>0.1022706536694068</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7031172870107184</v>
+        <v>0.6739833897452792</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>9</v>
@@ -11503,19 +11503,19 @@
         <v>6263</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3165</v>
+        <v>3264</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>9971</v>
+        <v>10023</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3024297883943926</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1528412649768296</v>
+        <v>0.157635146756865</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4814775608458707</v>
+        <v>0.48396966502875</v>
       </c>
     </row>
     <row r="33">
@@ -11620,19 +11620,19 @@
         <v>1204</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3106</v>
+        <v>3111</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1130804449105414</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0308993795082828</v>
+        <v>0.03210288824351316</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2916932188201587</v>
+        <v>0.2921885884805981</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -11641,19 +11641,19 @@
         <v>1204</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3266</v>
+        <v>3075</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.07578723460917895</v>
+        <v>0.07578723460917894</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02123613008692509</v>
+        <v>0.02173043253080563</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2055645611557857</v>
+        <v>0.1935517232048233</v>
       </c>
     </row>
     <row r="35">
@@ -11670,19 +11670,19 @@
         <v>1664</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3370</v>
+        <v>3603</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.3175863253423587</v>
+        <v>0.3175863253423588</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08705502940266516</v>
+        <v>0.08750413626862331</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6433032330102652</v>
+        <v>0.6877676574853591</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>6</v>
@@ -11691,19 +11691,19 @@
         <v>3329</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1190</v>
+        <v>1566</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5627</v>
+        <v>6075</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.312698018185921</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1117698268280574</v>
+        <v>0.1470465086132055</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5284797540732307</v>
+        <v>0.5705439305578228</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>9</v>
@@ -11712,19 +11712,19 @@
         <v>4993</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2569</v>
+        <v>2672</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>7806</v>
+        <v>7965</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3143101507429418</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1617059227082442</v>
+        <v>0.1681793525272151</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4914004805227156</v>
+        <v>0.5014080987859642</v>
       </c>
     </row>
     <row r="36">
@@ -11744,7 +11744,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2862</v>
+        <v>2795</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1970253165633762</v>
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5462730646357299</v>
+        <v>0.5335286759810325</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3</v>
@@ -11762,19 +11762,19 @@
         <v>1598</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3921</v>
+        <v>4033</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.150129450750464</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04070666595615753</v>
+        <v>0.03979212781821818</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3683003824199918</v>
+        <v>0.3787812596896435</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5</v>
@@ -11783,19 +11783,19 @@
         <v>2631</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1004</v>
+        <v>963</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5698</v>
+        <v>5223</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1655954085242327</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.06322388548896404</v>
+        <v>0.06060383963436699</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3586561749376268</v>
+        <v>0.3287745784313574</v>
       </c>
     </row>
     <row r="37">
@@ -11812,19 +11812,19 @@
         <v>2543</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>4208</v>
+        <v>4270</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4853883580942651</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.134622854396404</v>
+        <v>0.1378496843159452</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8032548674963904</v>
+        <v>0.8149666975572919</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>8</v>
@@ -11833,19 +11833,19 @@
         <v>4515</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2285</v>
+        <v>2333</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>7330</v>
+        <v>7185</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.4240920861530735</v>
+        <v>0.4240920861530736</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2145865075063188</v>
+        <v>0.2191415315658484</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6884989916331798</v>
+        <v>0.6748633710205018</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>12</v>
@@ -11854,19 +11854,19 @@
         <v>7058</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4212</v>
+        <v>4063</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>10126</v>
+        <v>10003</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4443072061236465</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2651378343969087</v>
+        <v>0.2557292929972568</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6374416922753502</v>
+        <v>0.6296708177780515</v>
       </c>
     </row>
     <row r="38">
@@ -11958,19 +11958,19 @@
         <v>17774</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>11710</v>
+        <v>11837</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>25923</v>
+        <v>25973</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2841288729539838</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1871880929198684</v>
+        <v>0.1892262510353047</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4144071616065038</v>
+        <v>0.4151979612514347</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>17</v>
@@ -11979,19 +11979,19 @@
         <v>10272</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>6418</v>
+        <v>6033</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>15885</v>
+        <v>15335</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.201554708459332</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1259375241777167</v>
+        <v>0.1183727587952329</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3116889990458611</v>
+        <v>0.3009081665139041</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>37</v>
@@ -12000,19 +12000,19 @@
         <v>28046</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>20581</v>
+        <v>21152</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>37637</v>
+        <v>37333</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.2470574150554286</v>
+        <v>0.2470574150554285</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1813013118799221</v>
+        <v>0.186328504813216</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.3315481902648355</v>
+        <v>0.3288637809110352</v>
       </c>
     </row>
     <row r="40">
@@ -12029,19 +12029,19 @@
         <v>8016</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4210</v>
+        <v>4262</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>13129</v>
+        <v>13395</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1281490925580644</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.06730696440904869</v>
+        <v>0.06812498961226618</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2098775160481076</v>
+        <v>0.2141248268481726</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>19</v>
@@ -12050,19 +12050,19 @@
         <v>11726</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>7679</v>
+        <v>7399</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>17030</v>
+        <v>17095</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2300776049064704</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1506799097551065</v>
+        <v>0.145183204213255</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3341501379838434</v>
+        <v>0.3354293066234409</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>31</v>
@@ -12071,19 +12071,19 @@
         <v>19742</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>13517</v>
+        <v>13253</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>26744</v>
+        <v>26508</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1739096349421299</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1190689336482511</v>
+        <v>0.1167444981153046</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2355891797240329</v>
+        <v>0.2335110048061979</v>
       </c>
     </row>
     <row r="41">
@@ -12100,19 +12100,19 @@
         <v>13704</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>8376</v>
+        <v>8245</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>22322</v>
+        <v>21734</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.2190681851255995</v>
+        <v>0.2190681851255994</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1338940329418114</v>
+        <v>0.1318036552896473</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3568331286456874</v>
+        <v>0.3474458458156275</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>11</v>
@@ -12121,19 +12121,19 @@
         <v>6666</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>3502</v>
+        <v>3604</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>11289</v>
+        <v>11344</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1308080056171692</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.06871666020925675</v>
+        <v>0.07072123567613986</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2215151793644273</v>
+        <v>0.2225976416169597</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>26</v>
@@ -12142,19 +12142,19 @@
         <v>20370</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>13056</v>
+        <v>13195</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>29162</v>
+        <v>29946</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1794440054709858</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1150112241920789</v>
+        <v>0.1162369966735616</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2568857156313013</v>
+        <v>0.2637978035334634</v>
       </c>
     </row>
     <row r="42">
@@ -12171,19 +12171,19 @@
         <v>23061</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>15873</v>
+        <v>16144</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>30668</v>
+        <v>30415</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.3686538493623523</v>
+        <v>0.3686538493623522</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2537379076335201</v>
+        <v>0.2580806550701801</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4902565003503206</v>
+        <v>0.4862165328051609</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>33</v>
@@ -12192,19 +12192,19 @@
         <v>22300</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>16360</v>
+        <v>16785</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>28030</v>
+        <v>28417</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4375596810170284</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3210064028454681</v>
+        <v>0.329356731811026</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5500020305849848</v>
+        <v>0.5575807497922785</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>58</v>
@@ -12213,19 +12213,19 @@
         <v>45361</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>36430</v>
+        <v>35849</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>54752</v>
+        <v>54629</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3995889445314558</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3209168384313582</v>
+        <v>0.315791614805788</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4823097134194295</v>
+        <v>0.481226647687741</v>
       </c>
     </row>
     <row r="43">
